--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63463F1F-5CB3-4F1F-85C9-D5FF6B6301FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C9563F-AC61-437D-B056-6A61AD264F09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="945" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="1110" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,62 @@
   </si>
   <si>
     <t>售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具使用条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用是否需要选角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUseToPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -460,8 +516,14 @@
       <c r="I1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -489,8 +551,14 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -507,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -517,6 +585,100 @@
       </c>
       <c r="I3" t="s">
         <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C9563F-AC61-437D-B056-6A61AD264F09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A18907-7867-44F8-B75D-1B23E592CD28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1110" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="1185" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>needToUse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>useLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否需要使用（1需要0不需要）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,14 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CURRENCY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>道具使用条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,11 +111,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
+    <t>经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用是否需要选角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUseToPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,27 +131,323 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用是否需要选角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isUseToPlayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金条</t>
+    <t>最大堆叠数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用职业要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备升阶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORTIFIEDSTONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPSTONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDICINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOTHES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NECKLACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通大刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战士衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战士帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战士腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战士布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战士项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战士戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战士护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通法师衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通法师帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通法师腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通法师布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通法师项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通法师戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通法师护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通刺客衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通刺客帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通刺客腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通刺客布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通刺客项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通刺客戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通刺客护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有大刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有战士衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有战士帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有战士腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有战士布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有战士项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有战士戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有战士护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有法师衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有法师帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有法师腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有法师布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有法师项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有法师戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有法师护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有刺客衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有刺客帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有刺客腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有刺客布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有刺客项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有刺客戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有刺客护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDICINE:MAX_MP,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDICINE:MAX_HP,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,50 +773,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -549,16 +856,25 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -575,110 +891,2024 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>9999</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>9999</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>99</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1000</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1000</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1000</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1000</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1000</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2000</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2000</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2000</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2000</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2000</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2000</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2000</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2000</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2000</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2000</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2000</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2000</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2000</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2000</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2000</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2000</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2000</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>32</v>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2000</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2000</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2000</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2000</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2000</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2000</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2000</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A18907-7867-44F8-B75D-1B23E592CD28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5983540-E81F-4CDC-AB79-4009B468DADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="1185" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="1455" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXP:1</t>
+    <t>EXP:MAX_HP,100:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5983540-E81F-4CDC-AB79-4009B468DADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA55596-54B3-4D16-B3AB-AE7891EA827A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="1455" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="105">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,14 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装备升阶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORTIFIEDSTONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UPSTONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,15 +431,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MEDICINE:MAX_MP,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEDICINE:MAX_HP,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP:MAX_HP,100:1</t>
+    <t>MAX_HP,100:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_MP,100:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRENSTONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备升级石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,15 +771,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -824,10 +823,10 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -868,10 +867,10 @@
         <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -912,10 +911,10 @@
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -946,8 +945,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>105</v>
+      <c r="M4">
+        <v>1</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
@@ -961,7 +960,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -990,10 +989,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1022,10 +1021,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1046,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -1057,10 +1056,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1081,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1092,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1101,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1130,16 +1129,16 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1168,16 +1167,16 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1206,16 +1205,16 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>45</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1244,16 +1243,16 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1282,16 +1281,16 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1320,16 +1319,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1358,16 +1357,16 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1396,16 +1395,16 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1434,16 +1433,16 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1472,16 +1471,16 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1510,16 +1509,16 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>45</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1548,16 +1547,16 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1586,16 +1585,16 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1624,16 +1623,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1662,16 +1661,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1700,16 +1699,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1738,16 +1737,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1776,16 +1775,16 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1814,16 +1813,16 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>45</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1852,16 +1851,16 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1890,16 +1889,16 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1928,16 +1927,16 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1966,16 +1965,16 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2004,7 +2003,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -2013,10 +2012,10 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2042,19 +2041,19 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2080,19 +2079,19 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F35">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2118,19 +2117,19 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
         <v>45</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>47</v>
-      </c>
       <c r="F36">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2156,19 +2155,19 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2194,19 +2193,19 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2232,19 +2231,19 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F39">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2270,19 +2269,19 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F40">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2308,19 +2307,19 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2346,19 +2345,19 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2384,19 +2383,19 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2422,19 +2421,19 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
         <v>45</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>47</v>
-      </c>
       <c r="F44">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2460,19 +2459,19 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2498,19 +2497,19 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2536,19 +2535,19 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2574,19 +2573,19 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2612,19 +2611,19 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2650,19 +2649,19 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2688,19 +2687,19 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F51">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2726,19 +2725,19 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
         <v>45</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>47</v>
-      </c>
       <c r="F52">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2764,19 +2763,19 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2802,19 +2801,19 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F54">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2840,19 +2839,19 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F55">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2878,19 +2877,19 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F56">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G56">
         <v>1</v>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA55596-54B3-4D16-B3AB-AE7891EA827A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F83050-09E2-4584-BD7C-A5889A33F8A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="750" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isCanSell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>道具唯一id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,14 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否能出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>道具使用条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,31 +99,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用是否需要选角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isUseToPlayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>最大堆叠数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用职业要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDICINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大堆叠数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>overLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOTHES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,62 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用职业要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPSTONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP药剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP药剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEDICINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否自动使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoUse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAPON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLOTHES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIPMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HAT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,11 +407,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STRENSTONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备升级石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSUME_STONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,67 +737,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="9.125" customWidth="1"/>
     <col min="13" max="13" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -849,31 +811,22 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -893,2020 +846,1534 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
-        <v>200</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5">
         <v>9999</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="H6">
-        <v>200</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6">
         <v>9999</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
-        <v>200</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7">
         <v>99</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
-        <v>200</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8">
         <v>99</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
       <c r="H9">
-        <v>1000</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
-        <v>1000</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="H11">
-        <v>1000</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12">
-        <v>1000</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
-        <v>1000</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14">
-        <v>1000</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
-        <v>1000</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="H16">
-        <v>1000</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
       <c r="H17">
-        <v>1000</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18">
-        <v>1000</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="H19">
-        <v>1000</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="N19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
       <c r="H20">
-        <v>1000</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
       <c r="H21">
-        <v>1000</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="N21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
       <c r="H22">
-        <v>1000</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
       <c r="H23">
-        <v>1000</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
       <c r="H24">
-        <v>1000</v>
-      </c>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="H25">
-        <v>1000</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="N25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
       <c r="H26">
-        <v>1000</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
       <c r="H27">
-        <v>1000</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>3</v>
       </c>
-      <c r="N27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
       <c r="H28">
-        <v>1000</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>3</v>
       </c>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
       <c r="H29">
-        <v>1000</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
-      <c r="N29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
       <c r="H30">
-        <v>1000</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
       <c r="H31">
-        <v>1000</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>3</v>
       </c>
-      <c r="N31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
       <c r="H32">
-        <v>1000</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="N32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
       <c r="H33">
-        <v>2000</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="N33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F34">
         <v>10</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
       <c r="H34">
-        <v>2000</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="N34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
       <c r="H35">
-        <v>2000</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="N35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
       <c r="H36">
-        <v>2000</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="N36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
       <c r="H37">
-        <v>2000</v>
-      </c>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="N37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F38">
         <v>10</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
       <c r="H38">
-        <v>2000</v>
-      </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="N38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F39">
         <v>10</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
       <c r="H39">
-        <v>2000</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="N39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F40">
         <v>10</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
       <c r="H40">
-        <v>2000</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="N40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F41">
         <v>10</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
       <c r="H41">
-        <v>2000</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>2</v>
-      </c>
-      <c r="N41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
       <c r="H42">
-        <v>2000</v>
-      </c>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <v>2</v>
-      </c>
-      <c r="N42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F43">
         <v>10</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
       <c r="H43">
-        <v>2000</v>
-      </c>
-      <c r="J43" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>2</v>
-      </c>
-      <c r="N43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F44">
         <v>10</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
       <c r="H44">
-        <v>2000</v>
-      </c>
-      <c r="J44" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>2</v>
-      </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F45">
         <v>10</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
       <c r="H45">
-        <v>2000</v>
-      </c>
-      <c r="J45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-      <c r="N45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F46">
         <v>10</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
       <c r="H46">
-        <v>2000</v>
-      </c>
-      <c r="J46" t="b">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="N46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F47">
         <v>10</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
       <c r="H47">
-        <v>2000</v>
-      </c>
-      <c r="J47" t="b">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>2</v>
-      </c>
-      <c r="N47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F48">
         <v>10</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
       <c r="H48">
-        <v>2000</v>
-      </c>
-      <c r="J48" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>2</v>
-      </c>
-      <c r="N48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F49">
         <v>10</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
       <c r="H49">
-        <v>2000</v>
-      </c>
-      <c r="J49" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="I49">
         <v>3</v>
       </c>
-      <c r="N49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F50">
         <v>10</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
       <c r="H50">
-        <v>2000</v>
-      </c>
-      <c r="J50" t="b">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>3</v>
       </c>
-      <c r="N50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F51">
         <v>10</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
       <c r="H51">
-        <v>2000</v>
-      </c>
-      <c r="J51" t="b">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>3</v>
       </c>
-      <c r="N51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F52">
         <v>10</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
       <c r="H52">
-        <v>2000</v>
-      </c>
-      <c r="J52" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>3</v>
       </c>
-      <c r="N52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F53">
         <v>10</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
       <c r="H53">
-        <v>2000</v>
-      </c>
-      <c r="J53" t="b">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>3</v>
       </c>
-      <c r="N53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F54">
         <v>10</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
       <c r="H54">
-        <v>2000</v>
-      </c>
-      <c r="J54" t="b">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="I54">
         <v>3</v>
       </c>
-      <c r="N54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F55">
         <v>10</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
       <c r="H55">
-        <v>2000</v>
-      </c>
-      <c r="J55" t="b">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>3</v>
       </c>
-      <c r="N55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F56">
         <v>10</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
       <c r="H56">
-        <v>2000</v>
-      </c>
-      <c r="J56" t="b">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>3</v>
       </c>
-      <c r="N56" t="b">
+      <c r="K56" t="b">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F83050-09E2-4584-BD7C-A5889A33F8A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6FC6E6-033C-4920-835B-031AFA8B35EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="750" windowWidth="14220" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="121">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,102 @@
   </si>
   <si>
     <t>CONSUME_STONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗大刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗刺客衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法师衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士戒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗战士衣服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2377,6 +2473,702 @@
         <v>0</v>
       </c>
     </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62">
+        <v>20</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>20</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69">
+        <v>20</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72">
+        <v>20</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75">
+        <v>20</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76">
+        <v>20</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77">
+        <v>20</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79">
+        <v>20</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80">
+        <v>20</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
